--- a/tables/CNV_copynumber_cnvkit_segment.xlsx
+++ b/tables/CNV_copynumber_cnvkit_segment.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:BJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,7 +1443,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLL/MZL/LPL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B18" s="14" t="inlineStr">
@@ -4496,7 +4496,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -6766,7 +6766,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MF, CD5+ small B cell lymphoproliferative</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B33" s="18" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="48">
       <c r="A48" s="20" t="inlineStr">
         <is>
-          <t>MDS s/p allogeneic bone marrow transplant</t>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B48" s="18" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10005,9 +10005,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A50" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B50" s="18" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10397,7 +10397,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10593,7 +10593,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10789,7 +10789,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10985,7 +10985,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11377,9 +11377,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A57" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B57" s="18" t="inlineStr">
@@ -11568,9 +11568,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A58" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B58" s="18" t="inlineStr">
@@ -11764,9 +11764,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with unilineage dysplasia</t>
+      <c r="A59" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B59" s="18" t="inlineStr">
@@ -11960,7 +11960,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12156,7 +12156,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12352,7 +12352,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12553,9 +12553,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MDS-EB-1</t>
+      <c r="A63" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B63" s="18" t="inlineStr">
@@ -12749,9 +12749,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A64" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B64" s="18" t="inlineStr">
@@ -12945,9 +12945,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A65" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B65" s="18" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13337,9 +13337,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A67" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B67" s="18" t="inlineStr">
@@ -13533,9 +13533,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia</t>
+      <c r="A68" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B68" s="18" t="inlineStr">
@@ -13729,9 +13729,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B69" s="18" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14121,7 +14121,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14313,9 +14313,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B72" s="18" t="inlineStr">
@@ -14509,9 +14509,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B73" s="18" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14901,7 +14901,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15097,7 +15097,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15293,7 +15293,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15489,7 +15489,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15685,9 +15685,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDS/MPN </t>
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B79" s="18" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16278,7 +16278,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16474,7 +16474,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16670,7 +16670,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16866,7 +16866,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17062,7 +17062,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17254,7 +17254,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17641,7 +17641,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17837,7 +17837,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18033,9 +18033,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A91" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B91" s="18" t="inlineStr">
@@ -18224,9 +18224,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with ring sideroblasts</t>
+      <c r="A92" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B92" s="18" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18616,7 +18616,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18812,9 +18812,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A95" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B95" s="18" t="inlineStr">
@@ -19008,9 +19008,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A96" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B96" s="18" t="inlineStr">
@@ -19199,9 +19199,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia and myelofibrosis</t>
+      <c r="A97" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B97" s="18" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19591,9 +19591,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A99" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B99" s="18" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19983,9 +19983,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A101" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B101" s="18" t="inlineStr">
@@ -20179,9 +20179,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A102" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B102" s="18" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20571,7 +20571,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20767,9 +20767,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MDS,  Refractory anemia with ring sideroblasts</t>
+      <c r="A105" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B105" s="18" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21164,9 +21164,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A107" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B107" s="18" t="inlineStr">
@@ -21365,9 +21365,9 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A108" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B108" s="18" t="inlineStr">
@@ -21566,9 +21566,9 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A109" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B109" s="18" t="inlineStr">
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21958,9 +21958,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A111" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B111" s="18" t="inlineStr">
@@ -22154,9 +22154,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A112" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B112" s="18" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -22546,9 +22546,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MDS/MPN</t>
+      <c r="A114" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B114" s="18" t="inlineStr">
@@ -22742,9 +22742,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A115" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B115" s="18" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23129,7 +23129,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23325,7 +23325,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23521,9 +23521,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MDS + CML</t>
+      <c r="A119" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B119" s="18" t="inlineStr">

--- a/tables/CNV_copynumber_cnvkit_segment.xlsx
+++ b/tables/CNV_copynumber_cnvkit_segment.xlsx
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>1.539070249144785</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>1.539070249144785</v>
       </c>
       <c r="AJ2" t="n">
         <v>3</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="20" t="n">
-        <v>1</v>
+        <v>1.539070249144785</v>
       </c>
       <c r="BA2" s="20" t="n">
         <v>3</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.816739127753255</v>
+        <v>2</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.816739127753255</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
         <v>2</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="AR4" s="20" t="n">
-        <v>1.816739127753255</v>
+        <v>2</v>
       </c>
       <c r="AS4" s="20" t="n">
         <v>2</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.368243697475356</v>
       </c>
       <c r="S5" s="20" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>2</v>
+        <v>2.368243697475356</v>
       </c>
       <c r="AJ5" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="20" t="n">
-        <v>2</v>
+        <v>2.368243697475356</v>
       </c>
       <c r="BA5" s="20" t="n">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="S6" s="20" t="n">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="AJ6" t="n">
         <v>3</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="20" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="BA6" s="20" t="n">
         <v>3</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.865191140927581</v>
       </c>
       <c r="S11" s="20" t="n">
         <v>3</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>1.865191140927581</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="20" t="n">
-        <v>2</v>
+        <v>1.865191140927581</v>
       </c>
       <c r="BA11" s="20" t="n">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.63062212637425</v>
+        <v>2.037065470154634</v>
       </c>
       <c r="S12" s="20" t="n">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.63062212637425</v>
+        <v>2.037065470154634</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="20" t="n">
-        <v>2.63062212637425</v>
+        <v>2.037065470154634</v>
       </c>
       <c r="BA12" s="20" t="n">
         <v>2</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.013692831708092</v>
       </c>
       <c r="S13" s="20" t="n">
         <v>2</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>2</v>
+        <v>2.013692831708092</v>
       </c>
       <c r="AJ13" t="n">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="20" t="n">
-        <v>2</v>
+        <v>2.013692831708092</v>
       </c>
       <c r="BA13" s="20" t="n">
         <v>2</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="S14" s="20" t="n">
         <v>3</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="AJ14" t="n">
         <v>3</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="20" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="BA14" s="20" t="n">
         <v>3</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.00013420917089</v>
       </c>
       <c r="S16" s="20" t="n">
         <v>2</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>2.00013420917089</v>
       </c>
       <c r="AJ16" t="n">
         <v>2</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="20" t="n">
-        <v>2</v>
+        <v>2.00013420917089</v>
       </c>
       <c r="BA16" s="20" t="n">
         <v>2</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.010317571662274</v>
       </c>
       <c r="S19" s="20" t="n">
         <v>2</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>2</v>
+        <v>2.010317571662274</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="20" t="n">
-        <v>2</v>
+        <v>2.010317571662274</v>
       </c>
       <c r="BA19" s="20" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.031301802830265</v>
       </c>
       <c r="S20" s="20" t="n">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>2</v>
+        <v>2.031301802830265</v>
       </c>
       <c r="AJ20" t="n">
         <v>2</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="20" t="n">
-        <v>2</v>
+        <v>2.031301802830265</v>
       </c>
       <c r="BA20" s="20" t="n">
         <v>2</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1.99999852046431</v>
       </c>
       <c r="S22" s="20" t="n">
         <v>2</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>2</v>
+        <v>1.99999852046431</v>
       </c>
       <c r="AJ22" t="n">
         <v>2</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="20" t="n">
-        <v>2</v>
+        <v>1.99999852046431</v>
       </c>
       <c r="BA22" s="20" t="n">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="S23" s="20" t="n">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="AJ23" t="n">
         <v>2</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="20" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="BA23" s="20" t="n">
         <v>2</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.00006703118137</v>
       </c>
       <c r="S25" s="20" t="n">
         <v>2</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>2.00006703118137</v>
       </c>
       <c r="AJ25" t="n">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="20" t="n">
-        <v>2</v>
+        <v>2.00006703118137</v>
       </c>
       <c r="BA25" s="20" t="n">
         <v>2</v>
@@ -5480,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.858791281950876</v>
+        <v>3</v>
       </c>
       <c r="K26" s="20" t="n">
         <v>2</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305793505773545</v>
       </c>
       <c r="S26" s="20" t="n">
         <v>3</v>
@@ -5531,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.858791281950876</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="n">
         <v>2</v>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305793505773545</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
@@ -5582,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="AR26" s="20" t="n">
-        <v>2.858791281950876</v>
+        <v>3</v>
       </c>
       <c r="AS26" s="20" t="n">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305793505773545</v>
       </c>
       <c r="BA26" s="20" t="n">
         <v>3</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.999995931371292</v>
       </c>
       <c r="S27" s="20" t="n">
         <v>2</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>2</v>
+        <v>1.999995931371292</v>
       </c>
       <c r="AJ27" t="n">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="20" t="n">
-        <v>2</v>
+        <v>1.999995931371292</v>
       </c>
       <c r="BA27" s="20" t="n">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.000132353023485</v>
       </c>
       <c r="S30" s="20" t="n">
         <v>3</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>2.000132353023485</v>
       </c>
       <c r="AJ30" t="n">
         <v>3</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="20" t="n">
-        <v>2</v>
+        <v>2.000132353023485</v>
       </c>
       <c r="BA30" s="20" t="n">
         <v>3</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.006815117732095</v>
       </c>
       <c r="S32" s="20" t="n">
         <v>2</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>2</v>
+        <v>2.006815117732095</v>
       </c>
       <c r="AJ32" t="n">
         <v>2</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="20" t="n">
-        <v>2</v>
+        <v>2.006815117732095</v>
       </c>
       <c r="BA32" s="20" t="n">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1.989747485049285</v>
       </c>
       <c r="S35" s="20" t="n">
         <v>3</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>2</v>
+        <v>1.989747485049285</v>
       </c>
       <c r="AJ35" t="n">
         <v>3</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="20" t="n">
-        <v>2</v>
+        <v>1.989747485049285</v>
       </c>
       <c r="BA35" s="20" t="n">
         <v>3</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.000047462682405</v>
       </c>
       <c r="S41" s="20" t="n">
         <v>2</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>2</v>
+        <v>2.000047462682405</v>
       </c>
       <c r="AJ41" t="n">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="20" t="n">
-        <v>2</v>
+        <v>2.000047462682405</v>
       </c>
       <c r="BA41" s="20" t="n">
         <v>2</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.63062212637425</v>
+        <v>2.01248760704654</v>
       </c>
       <c r="S43" s="20" t="n">
         <v>2</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.63062212637425</v>
+        <v>2.01248760704654</v>
       </c>
       <c r="AJ43" t="n">
         <v>2</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="20" t="n">
-        <v>2.63062212637425</v>
+        <v>2.01248760704654</v>
       </c>
       <c r="BA43" s="20" t="n">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.000034503457904</v>
       </c>
       <c r="S45" s="20" t="n">
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>2</v>
+        <v>2.000034503457904</v>
       </c>
       <c r="AJ45" t="n">
         <v>2</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="20" t="n">
-        <v>2</v>
+        <v>2.000034503457904</v>
       </c>
       <c r="BA45" s="20" t="n">
         <v>2</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.000058789551606</v>
       </c>
       <c r="S46" s="20" t="n">
         <v>2</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>2</v>
+        <v>2.000058789551606</v>
       </c>
       <c r="AJ46" t="n">
         <v>2</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="20" t="n">
-        <v>2</v>
+        <v>2.000058789551606</v>
       </c>
       <c r="BA46" s="20" t="n">
         <v>2</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="20" t="n">
-        <v>2</v>
+        <v>1.986368674926238</v>
       </c>
       <c r="S48" s="20" t="n">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="20" t="n">
-        <v>2</v>
+        <v>1.986368674926238</v>
       </c>
       <c r="AJ48" s="20" t="n">
         <v>2</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="20" t="n">
-        <v>2</v>
+        <v>1.986368674926238</v>
       </c>
       <c r="BA48" s="20" t="n">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>2.999865797593376</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>3</v>
+        <v>2.999865797593376</v>
       </c>
       <c r="AJ49" t="n">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="20" t="n">
-        <v>3</v>
+        <v>2.999865797593376</v>
       </c>
       <c r="BA49" s="20" t="n">
         <v>2</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>1.999951364306572</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>2</v>
+        <v>1.999951364306572</v>
       </c>
       <c r="AJ50" t="n">
         <v>2</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="20" t="n">
-        <v>2</v>
+        <v>1.999951364306572</v>
       </c>
       <c r="BA50" s="20" t="n">
         <v>2</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.000036352854414</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>2</v>
+        <v>2.000036352854414</v>
       </c>
       <c r="AJ51" t="n">
         <v>2</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="20" t="n">
-        <v>2</v>
+        <v>2.000036352854414</v>
       </c>
       <c r="BA51" s="20" t="n">
         <v>2</v>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="AJ53" t="n">
         <v>2</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="20" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="BA53" s="20" t="n">
         <v>2</v>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S54" t="n">
         <v>2.180519315702641</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ54" t="n">
         <v>2.180519315702641</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA54" s="20" t="n">
         <v>2.180519315702641</v>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
@@ -11076,7 +11076,7 @@
         <v>2</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="AB55" t="n">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>2</v>
       </c>
       <c r="AR55" s="20" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="AS55" s="20" t="n">
         <v>2</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.028056767877838</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>2</v>
+        <v>2.028056767877838</v>
       </c>
       <c r="AJ61" t="n">
         <v>2</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="20" t="n">
-        <v>2</v>
+        <v>2.028056767877838</v>
       </c>
       <c r="BA61" s="20" t="n">
         <v>2</v>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.000108138705298</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>2</v>
+        <v>2.000108138705298</v>
       </c>
       <c r="AJ62" t="n">
         <v>2</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="20" t="n">
-        <v>2</v>
+        <v>2.000108138705298</v>
       </c>
       <c r="BA62" s="20" t="n">
         <v>2</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="AJ63" t="n">
         <v>2</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="20" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="BA63" s="20" t="n">
         <v>2</v>
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="AJ65" t="n">
         <v>2</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="20" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="BA65" s="20" t="n">
         <v>2</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>1.999968099843484</v>
       </c>
       <c r="S67" t="n">
         <v>2</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>2</v>
+        <v>1.999968099843484</v>
       </c>
       <c r="AJ67" t="n">
         <v>2</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="20" t="n">
-        <v>2</v>
+        <v>1.999968099843484</v>
       </c>
       <c r="BA67" s="20" t="n">
         <v>2</v>
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>2.63062212637425</v>
+        <v>2.040639928834085</v>
       </c>
       <c r="S70" t="n">
         <v>2</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>2.63062212637425</v>
+        <v>2.040639928834085</v>
       </c>
       <c r="AJ70" t="n">
         <v>2</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="AZ70" s="20" t="n">
-        <v>2.63062212637425</v>
+        <v>2.040639928834085</v>
       </c>
       <c r="BA70" s="20" t="n">
         <v>2</v>
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>2.999998150629768</v>
       </c>
       <c r="S71" t="n">
         <v>2</v>
@@ -14232,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>3</v>
+        <v>2.999998150629768</v>
       </c>
       <c r="AJ71" t="n">
         <v>2</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="AZ71" s="20" t="n">
-        <v>3</v>
+        <v>2.999998150629768</v>
       </c>
       <c r="BA71" s="20" t="n">
         <v>2</v>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ73" t="n">
         <v>2</v>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="AZ73" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA73" s="20" t="n">
         <v>2</v>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="AJ79" t="n">
         <v>2</v>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="AZ79" s="20" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="BA79" s="20" t="n">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>1.993170565420512</v>
       </c>
       <c r="S84" t="n">
         <v>2</v>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>2</v>
+        <v>1.993170565420512</v>
       </c>
       <c r="AJ84" t="n">
         <v>2</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="AZ84" s="20" t="n">
-        <v>2</v>
+        <v>1.993170565420512</v>
       </c>
       <c r="BA84" s="20" t="n">
         <v>2</v>
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="S87" t="n">
         <v>2</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="AJ87" t="n">
         <v>2</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="AZ87" s="20" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="BA87" s="20" t="n">
         <v>2</v>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="S88" t="n">
         <v>2</v>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="AJ88" t="n">
         <v>2</v>
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="AZ88" s="20" t="n">
-        <v>3</v>
+        <v>2.999998520503814</v>
       </c>
       <c r="BA88" s="20" t="n">
         <v>2</v>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>2.63062212637425</v>
+        <v>2.694135888458605</v>
       </c>
       <c r="S93" t="n">
         <v>2</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="AI93" t="n">
-        <v>2.63062212637425</v>
+        <v>2.694135888458605</v>
       </c>
       <c r="AJ93" t="n">
         <v>2</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AZ93" s="20" t="n">
-        <v>2.63062212637425</v>
+        <v>2.694135888458605</v>
       </c>
       <c r="BA93" s="20" t="n">
         <v>2</v>
@@ -19263,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>3</v>
+        <v>3.003433158849081</v>
       </c>
       <c r="S97" t="n">
         <v>2</v>
@@ -19314,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="AI97" t="n">
-        <v>3</v>
+        <v>3.003433158849081</v>
       </c>
       <c r="AJ97" t="n">
         <v>2</v>
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="AZ97" s="20" t="n">
-        <v>3</v>
+        <v>3.003433158849081</v>
       </c>
       <c r="BA97" s="20" t="n">
         <v>2</v>
@@ -19435,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="K98" t="n">
         <v>2</v>
@@ -19486,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="AA98" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="AB98" t="n">
         <v>2</v>
@@ -19537,7 +19537,7 @@
         <v>1</v>
       </c>
       <c r="AR98" s="20" t="n">
-        <v>1.001158324931895</v>
+        <v>1.175219965298955</v>
       </c>
       <c r="AS98" s="20" t="n">
         <v>2</v>
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.623119613174073</v>
+        <v>1.381250176419115</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S101" t="n">
         <v>2</v>
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.623119613174073</v>
+        <v>1.381250176419115</v>
       </c>
       <c r="AA101" t="n">
         <v>2</v>
@@ -20098,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="AI101" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ101" t="n">
         <v>2</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="AQ101" s="20" t="n">
-        <v>1.623119613174073</v>
+        <v>1.381250176419115</v>
       </c>
       <c r="AR101" s="20" t="n">
         <v>2</v>
@@ -20149,7 +20149,7 @@
         <v>0</v>
       </c>
       <c r="AZ101" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA101" s="20" t="n">
         <v>2</v>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="S103" t="n">
         <v>2</v>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="AI103" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="AJ103" t="n">
         <v>2</v>
@@ -20541,7 +20541,7 @@
         <v>0</v>
       </c>
       <c r="AZ103" s="20" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="BA103" s="20" t="n">
         <v>2</v>
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>2.010209180011658</v>
       </c>
       <c r="S105" t="n">
         <v>2</v>
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="AI105" t="n">
-        <v>2</v>
+        <v>2.010209180011658</v>
       </c>
       <c r="AJ105" t="n">
         <v>2</v>
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="AZ105" s="20" t="n">
-        <v>2</v>
+        <v>2.010209180011658</v>
       </c>
       <c r="BA105" s="20" t="n">
         <v>2</v>
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>2.000134202406624</v>
       </c>
       <c r="S106" t="n">
         <v>2</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="AI106" t="n">
-        <v>2</v>
+        <v>2.000134202406624</v>
       </c>
       <c r="AJ106" t="n">
         <v>2</v>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="AZ106" s="20" t="n">
-        <v>2</v>
+        <v>2.000134202406624</v>
       </c>
       <c r="BA106" s="20" t="n">
         <v>2</v>
@@ -21204,7 +21204,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.569593429928601</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
         <v>2</v>
@@ -21255,7 +21255,7 @@
         <v>1</v>
       </c>
       <c r="AA107" t="n">
-        <v>1.569593429928601</v>
+        <v>2</v>
       </c>
       <c r="AB107" t="n">
         <v>2</v>
@@ -21306,7 +21306,7 @@
         <v>1</v>
       </c>
       <c r="AR107" s="20" t="n">
-        <v>1.569593429928601</v>
+        <v>2</v>
       </c>
       <c r="AS107" s="20" t="n">
         <v>2</v>
@@ -22022,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="S111" t="n">
         <v>2</v>
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="AI111" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="AJ111" t="n">
         <v>2</v>
@@ -22124,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="AZ111" s="20" t="n">
-        <v>2</v>
+        <v>1.999995561509801</v>
       </c>
       <c r="BA111" s="20" t="n">
         <v>2</v>
@@ -22218,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>2.36937787362575</v>
+        <v>2.503986586165084</v>
       </c>
       <c r="S112" t="n">
         <v>2.180519315702641</v>
@@ -22269,7 +22269,7 @@
         <v>0</v>
       </c>
       <c r="AI112" t="n">
-        <v>2.36937787362575</v>
+        <v>2.503986586165084</v>
       </c>
       <c r="AJ112" t="n">
         <v>2.180519315702641</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AZ112" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.503986586165084</v>
       </c>
       <c r="BA112" s="20" t="n">
         <v>2.180519315702641</v>
@@ -22806,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S115" t="n">
         <v>2.180519315702641</v>
@@ -22857,7 +22857,7 @@
         <v>0</v>
       </c>
       <c r="AI115" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ115" t="n">
         <v>2.180519315702641</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="AZ115" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA115" s="20" t="n">
         <v>2.180519315702641</v>
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>3</v>
+        <v>3.010224230797849</v>
       </c>
       <c r="S116" t="n">
         <v>2</v>
@@ -23048,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="AI116" t="n">
-        <v>3</v>
+        <v>3.010224230797849</v>
       </c>
       <c r="AJ116" t="n">
         <v>2</v>
@@ -23099,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="AZ116" s="20" t="n">
-        <v>3</v>
+        <v>3.010224230797849</v>
       </c>
       <c r="BA116" s="20" t="n">
         <v>2</v>
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.83487984423596</v>
+        <v>1.842835815746308</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>1.63062212637425</v>
+        <v>1.676773561057014</v>
       </c>
       <c r="S118" t="n">
         <v>2</v>
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.83487984423596</v>
+        <v>1.842835815746308</v>
       </c>
       <c r="AA118" t="n">
         <v>2</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="AI118" t="n">
-        <v>1.63062212637425</v>
+        <v>1.676773561057014</v>
       </c>
       <c r="AJ118" t="n">
         <v>2</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="AQ118" s="20" t="n">
-        <v>1.83487984423596</v>
+        <v>1.842835815746308</v>
       </c>
       <c r="AR118" s="20" t="n">
         <v>2</v>
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="AZ118" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.676773561057014</v>
       </c>
       <c r="BA118" s="20" t="n">
         <v>2</v>
@@ -23561,7 +23561,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.996351734630409</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>2</v>
@@ -23612,7 +23612,7 @@
         <v>2</v>
       </c>
       <c r="AA119" t="n">
-        <v>1.996351734630409</v>
+        <v>2</v>
       </c>
       <c r="AB119" t="n">
         <v>2</v>
@@ -23663,7 +23663,7 @@
         <v>2</v>
       </c>
       <c r="AR119" s="20" t="n">
-        <v>1.996351734630409</v>
+        <v>2</v>
       </c>
       <c r="AS119" s="20" t="n">
         <v>2</v>
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>1.63062212637425</v>
+        <v>1.721366336780425</v>
       </c>
       <c r="S120" t="n">
         <v>2</v>
@@ -23826,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="AI120" t="n">
-        <v>1.63062212637425</v>
+        <v>1.721366336780425</v>
       </c>
       <c r="AJ120" t="n">
         <v>2</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="AZ120" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.721366336780425</v>
       </c>
       <c r="BA120" s="20" t="n">
         <v>2</v>
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694134039088373</v>
       </c>
       <c r="S121" t="n">
         <v>2</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="AI121" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694134039088373</v>
       </c>
       <c r="AJ121" t="n">
         <v>2</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="AZ121" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694134039088373</v>
       </c>
       <c r="BA121" s="20" t="n">
         <v>2</v>
@@ -24358,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S123" t="n">
         <v>2</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="AI123" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ123" t="n">
         <v>2</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="AZ123" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA123" s="20" t="n">
         <v>2</v>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>2.000024432623332</v>
       </c>
       <c r="S124" t="n">
         <v>2</v>
@@ -24600,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="AI124" t="n">
-        <v>2</v>
+        <v>2.000024432623332</v>
       </c>
       <c r="AJ124" t="n">
         <v>2</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="AZ124" s="20" t="n">
-        <v>2</v>
+        <v>2.000024432623332</v>
       </c>
       <c r="BA124" s="20" t="n">
         <v>2</v>
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="AI128" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ128" t="n">
         <v>2</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="AZ128" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA128" s="20" t="n">
         <v>2</v>
@@ -26085,7 +26085,7 @@
         <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>2.006420445866059</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
         <v>2.923243834721834</v>
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="R132" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694125872029263</v>
       </c>
       <c r="S132" t="n">
         <v>1.180519315702641</v>
@@ -26136,7 +26136,7 @@
         <v>1</v>
       </c>
       <c r="AE132" t="n">
-        <v>2.006420445866059</v>
+        <v>2</v>
       </c>
       <c r="AF132" t="n">
         <v>2.923243834721834</v>
@@ -26148,7 +26148,7 @@
         <v>0</v>
       </c>
       <c r="AI132" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694125872029263</v>
       </c>
       <c r="AJ132" t="n">
         <v>1.180519315702641</v>
@@ -26187,7 +26187,7 @@
         <v>1</v>
       </c>
       <c r="AV132" s="20" t="n">
-        <v>2.006420445866059</v>
+        <v>2</v>
       </c>
       <c r="AW132" s="20" t="n">
         <v>2.923243834721834</v>
@@ -26199,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="AZ132" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694125872029263</v>
       </c>
       <c r="BA132" s="20" t="n">
         <v>1.180519315702641</v>
@@ -26459,7 +26459,7 @@
         <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>2.706795050437817</v>
+        <v>2.954084420678648</v>
       </c>
       <c r="O134" t="n">
         <v>3</v>
@@ -26471,7 +26471,7 @@
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>2.07422639948509</v>
       </c>
       <c r="S134" t="n">
         <v>2</v>
@@ -26510,7 +26510,7 @@
         <v>2</v>
       </c>
       <c r="AE134" t="n">
-        <v>2.706795050437817</v>
+        <v>2.954084420678648</v>
       </c>
       <c r="AF134" t="n">
         <v>3</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="AI134" t="n">
-        <v>2</v>
+        <v>2.07422639948509</v>
       </c>
       <c r="AJ134" t="n">
         <v>2</v>
@@ -26561,7 +26561,7 @@
         <v>2</v>
       </c>
       <c r="AV134" s="20" t="n">
-        <v>2.706795050437817</v>
+        <v>2.954084420678648</v>
       </c>
       <c r="AW134" s="20" t="n">
         <v>3</v>
@@ -26573,7 +26573,7 @@
         <v>0</v>
       </c>
       <c r="AZ134" s="20" t="n">
-        <v>2</v>
+        <v>2.07422639948509</v>
       </c>
       <c r="BA134" s="20" t="n">
         <v>2</v>
@@ -26667,7 +26667,7 @@
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S135" t="n">
         <v>2.180519315702641</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="AI135" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ135" t="n">
         <v>2.180519315702641</v>
@@ -26769,7 +26769,7 @@
         <v>0</v>
       </c>
       <c r="AZ135" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA135" s="20" t="n">
         <v>2.180519315702641</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="S139" t="n">
         <v>2</v>
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
       <c r="AI139" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="AJ139" t="n">
         <v>2</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="AZ139" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="BA139" s="20" t="n">
         <v>2</v>
@@ -27632,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>2.010297993081045</v>
       </c>
       <c r="S140" t="n">
         <v>2</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AI140" t="n">
-        <v>2</v>
+        <v>2.010297993081045</v>
       </c>
       <c r="AJ140" t="n">
         <v>2</v>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="AZ140" s="20" t="n">
-        <v>2</v>
+        <v>2.010297993081045</v>
       </c>
       <c r="BA140" s="20" t="n">
         <v>2</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S141" t="n">
         <v>2</v>
@@ -27879,7 +27879,7 @@
         <v>0</v>
       </c>
       <c r="AI141" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ141" t="n">
         <v>2</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="AZ141" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA141" s="20" t="n">
         <v>2</v>
@@ -28213,7 +28213,7 @@
         <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>2.000018019216482</v>
       </c>
       <c r="S143" t="n">
         <v>2</v>
@@ -28264,7 +28264,7 @@
         <v>1</v>
       </c>
       <c r="AI143" t="n">
-        <v>2</v>
+        <v>2.000018019216482</v>
       </c>
       <c r="AJ143" t="n">
         <v>2</v>
@@ -28315,7 +28315,7 @@
         <v>1</v>
       </c>
       <c r="AZ143" s="20" t="n">
-        <v>2</v>
+        <v>2.000018019216482</v>
       </c>
       <c r="BA143" s="20" t="n">
         <v>2</v>
@@ -28583,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="S145" t="n">
         <v>2</v>
@@ -28634,7 +28634,7 @@
         <v>0</v>
       </c>
       <c r="AI145" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="AJ145" t="n">
         <v>2</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="AZ145" s="20" t="n">
-        <v>2</v>
+        <v>2.000132722900113</v>
       </c>
       <c r="BA145" s="20" t="n">
         <v>2</v>
@@ -28768,7 +28768,7 @@
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S146" t="n">
         <v>2</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="AI146" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ146" t="n">
         <v>2</v>
@@ -28870,7 +28870,7 @@
         <v>0</v>
       </c>
       <c r="AZ146" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA146" s="20" t="n">
         <v>2</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="R149" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="S149" t="n">
         <v>2</v>
@@ -29380,7 +29380,7 @@
         <v>1</v>
       </c>
       <c r="AI149" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="AJ149" t="n">
         <v>2</v>
@@ -29431,7 +29431,7 @@
         <v>1</v>
       </c>
       <c r="AZ149" s="20" t="n">
-        <v>2</v>
+        <v>1.999995931385489</v>
       </c>
       <c r="BA149" s="20" t="n">
         <v>2</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>1.999998150623315</v>
       </c>
       <c r="S150" t="n">
         <v>2</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="AI150" t="n">
-        <v>2</v>
+        <v>1.999998150623315</v>
       </c>
       <c r="AJ150" t="n">
         <v>2</v>
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="AZ150" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150623315</v>
       </c>
       <c r="BA150" s="20" t="n">
         <v>2</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>2</v>
+        <v>2.075006806979126</v>
       </c>
       <c r="S151" t="n">
         <v>2</v>
@@ -29753,7 +29753,7 @@
         <v>0</v>
       </c>
       <c r="AI151" t="n">
-        <v>2</v>
+        <v>2.075006806979126</v>
       </c>
       <c r="AJ151" t="n">
         <v>2</v>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
       <c r="AZ151" s="20" t="n">
-        <v>2</v>
+        <v>2.075006806979126</v>
       </c>
       <c r="BA151" s="20" t="n">
         <v>2</v>
@@ -30082,7 +30082,7 @@
         <v>0</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S153" t="n">
         <v>2</v>
@@ -30133,7 +30133,7 @@
         <v>0</v>
       </c>
       <c r="AI153" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ153" t="n">
         <v>2</v>
@@ -30184,7 +30184,7 @@
         <v>0</v>
       </c>
       <c r="AZ153" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA153" s="20" t="n">
         <v>2</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="S154" t="n">
         <v>2</v>
@@ -30324,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="AI154" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="AJ154" t="n">
         <v>2</v>
@@ -30375,7 +30375,7 @@
         <v>0</v>
       </c>
       <c r="AZ154" s="20" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="BA154" s="20" t="n">
         <v>2</v>
@@ -30464,7 +30464,7 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>2.028055288381652</v>
       </c>
       <c r="S155" t="n">
         <v>2</v>
@@ -30515,7 +30515,7 @@
         <v>1</v>
       </c>
       <c r="AI155" t="n">
-        <v>2</v>
+        <v>2.028055288381652</v>
       </c>
       <c r="AJ155" t="n">
         <v>2</v>
@@ -30566,7 +30566,7 @@
         <v>0</v>
       </c>
       <c r="AZ155" s="20" t="n">
-        <v>2</v>
+        <v>2.028055288381652</v>
       </c>
       <c r="BA155" s="20" t="n">
         <v>2</v>
@@ -30655,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="S156" t="n">
         <v>2</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="AI156" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="AJ156" t="n">
         <v>2</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="AZ156" s="20" t="n">
-        <v>2</v>
+        <v>2.031426138993279</v>
       </c>
       <c r="BA156" s="20" t="n">
         <v>2</v>
@@ -31037,7 +31037,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>1.97241487183031</v>
       </c>
       <c r="S158" t="n">
         <v>2</v>
@@ -31088,7 +31088,7 @@
         <v>1</v>
       </c>
       <c r="AI158" t="n">
-        <v>2</v>
+        <v>1.97241487183031</v>
       </c>
       <c r="AJ158" t="n">
         <v>2</v>
@@ -31139,7 +31139,7 @@
         <v>1</v>
       </c>
       <c r="AZ158" s="20" t="n">
-        <v>2</v>
+        <v>1.97241487183031</v>
       </c>
       <c r="BA158" s="20" t="n">
         <v>2</v>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
       <c r="R163" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="S163" t="n">
         <v>2</v>
@@ -32033,7 +32033,7 @@
         <v>1</v>
       </c>
       <c r="AI163" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="AJ163" t="n">
         <v>2</v>
@@ -32084,7 +32084,7 @@
         <v>1</v>
       </c>
       <c r="AZ163" s="20" t="n">
-        <v>2</v>
+        <v>1.999998520503814</v>
       </c>
       <c r="BA163" s="20" t="n">
         <v>2</v>
@@ -32359,7 +32359,7 @@
         <v>0</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>2.006926875524166</v>
       </c>
       <c r="S165" t="n">
         <v>2</v>
@@ -32410,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="AI165" t="n">
-        <v>2</v>
+        <v>2.006926875524166</v>
       </c>
       <c r="AJ165" t="n">
         <v>2</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="AZ165" s="20" t="n">
-        <v>2</v>
+        <v>2.006926875524166</v>
       </c>
       <c r="BA165" s="20" t="n">
         <v>2</v>
@@ -32550,7 +32550,7 @@
         <v>0</v>
       </c>
       <c r="R166" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S166" t="n">
         <v>2</v>
@@ -32601,7 +32601,7 @@
         <v>0</v>
       </c>
       <c r="AI166" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ166" t="n">
         <v>2</v>
@@ -32652,7 +32652,7 @@
         <v>0</v>
       </c>
       <c r="AZ166" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA166" s="20" t="n">
         <v>2</v>
@@ -32932,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="R168" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="S168" t="n">
         <v>2</v>
@@ -32983,7 +32983,7 @@
         <v>0</v>
       </c>
       <c r="AI168" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="AJ168" t="n">
         <v>2</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="AZ168" s="20" t="n">
-        <v>1.63062212637425</v>
+        <v>1.694135888458605</v>
       </c>
       <c r="BA168" s="20" t="n">
         <v>2</v>
@@ -34067,7 +34067,7 @@
         <v>0</v>
       </c>
       <c r="R174" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S174" t="n">
         <v>2.180519315702641</v>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
       <c r="AI174" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ174" t="n">
         <v>2.180519315702641</v>
@@ -34169,7 +34169,7 @@
         <v>0</v>
       </c>
       <c r="AZ174" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA174" s="20" t="n">
         <v>2.180519315702641</v>
@@ -34437,7 +34437,7 @@
         <v>0</v>
       </c>
       <c r="R176" t="n">
-        <v>3</v>
+        <v>3.027535153126505</v>
       </c>
       <c r="S176" t="n">
         <v>3</v>
@@ -34488,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="AI176" t="n">
-        <v>3</v>
+        <v>3.027535153126505</v>
       </c>
       <c r="AJ176" t="n">
         <v>3</v>
@@ -34539,7 +34539,7 @@
         <v>0</v>
       </c>
       <c r="AZ176" s="20" t="n">
-        <v>3</v>
+        <v>3.027535153126505</v>
       </c>
       <c r="BA176" s="20" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         <v>0</v>
       </c>
       <c r="R178" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S178" t="n">
         <v>2.180519315702641</v>
@@ -34872,7 +34872,7 @@
         <v>1</v>
       </c>
       <c r="AI178" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ178" t="n">
         <v>2.180519315702641</v>
@@ -34923,7 +34923,7 @@
         <v>1</v>
       </c>
       <c r="AZ178" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA178" s="20" t="n">
         <v>2.180519315702641</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="R179" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S179" t="n">
         <v>2.180519315702641</v>
@@ -35074,7 +35074,7 @@
         <v>0</v>
       </c>
       <c r="AI179" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ179" t="n">
         <v>2.180519315702641</v>
@@ -35125,7 +35125,7 @@
         <v>0</v>
       </c>
       <c r="AZ179" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA179" s="20" t="n">
         <v>2.180519315702641</v>
@@ -35383,7 +35383,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="n">
-        <v>1.996348826057367</v>
+        <v>2</v>
       </c>
       <c r="K181" t="n">
         <v>2</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="R181" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="S181" t="n">
         <v>2</v>
@@ -35434,7 +35434,7 @@
         <v>2</v>
       </c>
       <c r="AA181" t="n">
-        <v>1.996348826057367</v>
+        <v>2</v>
       </c>
       <c r="AB181" t="n">
         <v>2</v>
@@ -35458,7 +35458,7 @@
         <v>0</v>
       </c>
       <c r="AI181" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="AJ181" t="n">
         <v>2</v>
@@ -35485,7 +35485,7 @@
         <v>2</v>
       </c>
       <c r="AR181" s="20" t="n">
-        <v>1.996348826057367</v>
+        <v>2</v>
       </c>
       <c r="AS181" s="20" t="n">
         <v>2</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="AZ181" s="20" t="n">
-        <v>2</v>
+        <v>1.999998150629768</v>
       </c>
       <c r="BA181" s="20" t="n">
         <v>2</v>
@@ -35599,7 +35599,7 @@
         <v>0</v>
       </c>
       <c r="R182" t="n">
-        <v>2</v>
+        <v>2.000002079692548</v>
       </c>
       <c r="S182" t="n">
         <v>2</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="AI182" t="n">
-        <v>2</v>
+        <v>2.000002079692548</v>
       </c>
       <c r="AJ182" t="n">
         <v>2</v>
@@ -35701,7 +35701,7 @@
         <v>0</v>
       </c>
       <c r="AZ182" s="20" t="n">
-        <v>2</v>
+        <v>2.000002079692548</v>
       </c>
       <c r="BA182" s="20" t="n">
         <v>2</v>
@@ -36569,7 +36569,7 @@
         <v>0</v>
       </c>
       <c r="R187" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S187" t="n">
         <v>2.180519315702641</v>
@@ -36620,7 +36620,7 @@
         <v>1</v>
       </c>
       <c r="AI187" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ187" t="n">
         <v>2.180519315702641</v>
@@ -36671,7 +36671,7 @@
         <v>1</v>
       </c>
       <c r="AZ187" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA187" s="20" t="n">
         <v>2.180519315702641</v>
@@ -36968,7 +36968,7 @@
         <v>0</v>
       </c>
       <c r="R189" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="S189" t="n">
         <v>2.180519315702641</v>
@@ -37019,7 +37019,7 @@
         <v>0</v>
       </c>
       <c r="AI189" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="AJ189" t="n">
         <v>2.180519315702641</v>
@@ -37070,7 +37070,7 @@
         <v>0</v>
       </c>
       <c r="AZ189" s="20" t="n">
-        <v>2.36937787362575</v>
+        <v>2.305864111541395</v>
       </c>
       <c r="BA189" s="20" t="n">
         <v>2.180519315702641</v>
@@ -39130,7 +39130,7 @@
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>2</v>
+        <v>2.000033644921644</v>
       </c>
       <c r="S200" t="n">
         <v>2</v>
@@ -39181,7 +39181,7 @@
         <v>0</v>
       </c>
       <c r="AI200" t="n">
-        <v>2</v>
+        <v>2.000033644921644</v>
       </c>
       <c r="AJ200" t="n">
         <v>2</v>
@@ -39232,7 +39232,7 @@
         <v>0</v>
       </c>
       <c r="AZ200" s="20" t="n">
-        <v>2</v>
+        <v>2.000033644921644</v>
       </c>
       <c r="BA200" s="20" t="n">
         <v>2</v>
